--- a/Web_Crawling/동아일보 크롤링/동아일보_귀농관련기사_크롤링.xlsx
+++ b/Web_Crawling/동아일보 크롤링/동아일보_귀농관련기사_크롤링.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>기사제목</t>
   </si>
@@ -20,12 +20,12 @@
     <t>기사내용</t>
   </si>
   <si>
+    <t>기사입력날짜</t>
+  </si>
+  <si>
     <t>기사url</t>
   </si>
   <si>
-    <t>기사입력날짜</t>
-  </si>
-  <si>
     <t>귀농귀촌 박람회, 18일부터 킨텍스서…무태장어 스마트 양식 정보 등 제공                                2019-07-02 10:49</t>
   </si>
   <si>
@@ -206,9 +206,6 @@
     <t>... 15일 발표된 서울연구원 인포그래픽스에 따르면 2017년 서울을 떠난 귀농·귀어·귀촌 인구는 7만3709명이다. 귀농인은 3095명, 귀어인은 212명, 귀촌인은 7만402명이다.2013년부터 2017년까지 이주한 귀농·귀어·귀촌 인구를 합하면 36만1869명에...</t>
   </si>
   <si>
-    <t>http://www.donga.com/news/search?p=16&amp;query=%EA%B7%80%EB%86%8D&amp;check_news=1&amp;more=1&amp;sorting=1&amp;search_date=1&amp;v1=&amp;v2=&amp;range=1</t>
-  </si>
-  <si>
     <t>2019-07-02 10:49</t>
   </si>
   <si>
@@ -282,6 +279,96 @@
   </si>
   <si>
     <t>2019-04-15 15:41</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190702/96281616/2</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190702/96277776/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190702/96277786/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190701/96277045/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190701/96274705/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190701/96269921/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190628/96224076/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190627/96209538/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190623/96146299/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190623/96142835/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190618/96056123/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190614/95992088/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190531/95790497/2</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190602/95813189/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190523/95654317/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190522/95648114/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190522/95644002/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190521/95633310/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190520/95615399/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190514/95516552/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190514/95517531/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190514/95525073/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190515/95526117/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190514/95520616/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190513/95506281/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190503/95368539/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190424/95195812/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190418/95109835/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190416/95074108/1</t>
+  </si>
+  <si>
+    <t>http://news.donga.com/3/all/20190415/95058958/1</t>
   </si>
 </sst>
 </file>
@@ -357,7 +444,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -368,10 +455,10 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -382,10 +469,10 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -396,10 +483,10 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -410,10 +497,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -424,10 +511,10 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -438,10 +525,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -452,10 +539,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -466,10 +553,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -480,10 +567,10 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -494,10 +581,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +595,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -522,10 +609,10 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -536,10 +623,10 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -550,10 +637,10 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -564,10 +651,10 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -578,10 +665,10 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -592,10 +679,10 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -606,10 +693,10 @@
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -620,10 +707,10 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
@@ -634,10 +721,10 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -648,10 +735,10 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -662,10 +749,10 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -676,10 +763,10 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -690,10 +777,10 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -704,10 +791,10 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -718,10 +805,10 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -732,10 +819,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -746,10 +833,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -760,10 +847,10 @@
         <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
